--- a/resultados_percepciones.xlsx
+++ b/resultados_percepciones.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,12 +586,12 @@
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>30-51615064-1</t>
+          <t>30-59317405-7</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>VOLVO TRUCKS   BUSES ARGENTINA S.A.</t>
+          <t>RIZOBACTER ARGENTINA S.A.</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -601,17 +601,17 @@
         <v>2023</v>
       </c>
       <c r="F3" t="n">
-        <v>32292576</v>
+        <v>32321704</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>20000010392</v>
+        <v>1400032712</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Factura</t>
+          <t>Nota Crédito</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -621,20 +621,20 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2 - Regimen faena y comercializacion de ganado bovino</t>
+          <t>1 - Regimen general mayorista</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>3910608</v>
+        <v>-12821720</v>
       </c>
       <c r="M3" t="n">
         <v>0.25</v>
       </c>
       <c r="N3" t="n">
-        <v>9776.52</v>
+        <v>-32054.3</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>45090</v>
+        <v>45106</v>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
@@ -643,12 +643,12 @@
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>30-54668997-9</t>
+          <t>30-59317405-7</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>YPF SOCIEDAD ANONIMA</t>
+          <t>RIZOBACTER ARGENTINA S.A.</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -658,13 +658,13 @@
         <v>2023</v>
       </c>
       <c r="F4" t="n">
-        <v>32294765</v>
+        <v>32321704</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>217200913399</v>
+        <v>1400074877</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -678,20 +678,20 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>4 - Sector mayorista de combustibles</t>
+          <t>1 - Regimen general mayorista</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>75818.67</v>
+        <v>12821720</v>
       </c>
       <c r="M4" t="n">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="N4" t="n">
-        <v>1137.28</v>
+        <v>32054.3</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>45092</v>
+        <v>45106</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
@@ -721,11 +721,11 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1400032712</v>
+        <v>1400074858</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Nota Crédito</t>
+          <t>Factura</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -739,13 +739,13 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>-12821720</v>
+        <v>31136</v>
       </c>
       <c r="M5" t="n">
         <v>0.25</v>
       </c>
       <c r="N5" t="n">
-        <v>32054.3</v>
+        <v>77.84</v>
       </c>
       <c r="O5" s="2" t="n">
         <v>45106</v>
@@ -778,7 +778,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1400074877</v>
+        <v>1400074857</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -796,13 +796,13 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>12821720</v>
+        <v>3039652</v>
       </c>
       <c r="M6" t="n">
         <v>0.25</v>
       </c>
       <c r="N6" t="n">
-        <v>32054.3</v>
+        <v>7599.13</v>
       </c>
       <c r="O6" s="2" t="n">
         <v>45106</v>
@@ -835,7 +835,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1400074858</v>
+        <v>1400074856</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -853,13 +853,13 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>31136</v>
+        <v>3060084</v>
       </c>
       <c r="M7" t="n">
         <v>0.25</v>
       </c>
       <c r="N7" t="n">
-        <v>77.84</v>
+        <v>7650.21</v>
       </c>
       <c r="O7" s="2" t="n">
         <v>45106</v>
@@ -892,7 +892,7 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1400074857</v>
+        <v>1400074855</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>3039652</v>
+        <v>31136</v>
       </c>
       <c r="M8" t="n">
         <v>0.25</v>
       </c>
       <c r="N8" t="n">
-        <v>7599.13</v>
+        <v>77.84</v>
       </c>
       <c r="O8" s="2" t="n">
         <v>45106</v>
@@ -949,7 +949,7 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1400074856</v>
+        <v>1400074854</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>3060084</v>
+        <v>3039652</v>
       </c>
       <c r="M9" t="n">
         <v>0.25</v>
       </c>
       <c r="N9" t="n">
-        <v>7650.21</v>
+        <v>7599.13</v>
       </c>
       <c r="O9" s="2" t="n">
         <v>45106</v>
@@ -1006,7 +1006,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1400074855</v>
+        <v>1400074853</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -1024,13 +1024,13 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>31136</v>
+        <v>3064952</v>
       </c>
       <c r="M10" t="n">
         <v>0.25</v>
       </c>
       <c r="N10" t="n">
-        <v>77.84</v>
+        <v>-111721.68</v>
       </c>
       <c r="O10" s="2" t="n">
         <v>45106</v>
@@ -1042,28 +1042,28 @@
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>30-59317405-7</t>
+          <t>30-51615064-1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>RIZOBACTER ARGENTINA S.A.</t>
+          <t>VOLVO TRUCKS   BUSES ARGENTINA S.A.</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E11" t="n">
         <v>2023</v>
       </c>
       <c r="F11" t="n">
-        <v>32321704</v>
+        <v>32474619</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1400074854</v>
+        <v>20000010718</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1077,20 +1077,20 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>1 - Regimen general mayorista</t>
+          <t>2 - Regimen faena y comercializacion de ganado bovino</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>3039652</v>
+        <v>3874532</v>
       </c>
       <c r="M11" t="n">
         <v>0.25</v>
       </c>
       <c r="N11" t="n">
-        <v>7599.13</v>
+        <v>9686.33</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>45106</v>
+        <v>45118</v>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
@@ -1099,28 +1099,28 @@
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>30-59317405-7</t>
+          <t>30-51615064-1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>RIZOBACTER ARGENTINA S.A.</t>
+          <t>VOLVO TRUCKS   BUSES ARGENTINA S.A.</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E12" t="n">
         <v>2023</v>
       </c>
       <c r="F12" t="n">
-        <v>32321704</v>
+        <v>32474619</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1400074853</v>
+        <v>20000010717</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1134,20 +1134,20 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>1 - Regimen general mayorista</t>
+          <t>2 - Regimen faena y comercializacion de ganado bovino</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>3064952</v>
+        <v>1096208</v>
       </c>
       <c r="M12" t="n">
         <v>0.25</v>
       </c>
       <c r="N12" t="n">
-        <v>7662.38</v>
+        <v>2740.52</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>45106</v>
+        <v>45118</v>
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
@@ -1156,32 +1156,32 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
-          <t>30-51615064-1</t>
+          <t>30-59317405-7</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>VOLVO TRUCKS   BUSES ARGENTINA S.A.</t>
+          <t>RIZOBACTER ARGENTINA S.A.</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E13" t="n">
         <v>2023</v>
       </c>
       <c r="F13" t="n">
-        <v>32292576</v>
+        <v>32500736</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>20000010603</v>
+        <v>1400032811</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Factura</t>
+          <t>Nota Crédito</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1191,20 +1191,20 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2 - Regimen faena y comercializacion de ganado bovino</t>
+          <t>1 - Regimen general mayorista</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>250820</v>
+        <v>-3039652</v>
       </c>
       <c r="M13" t="n">
         <v>0.25</v>
       </c>
       <c r="N13" t="n">
-        <v>627.05</v>
+        <v>-7599.13</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>45107</v>
+        <v>45121</v>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
@@ -1213,32 +1213,32 @@
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
-          <t>30-54668997-9</t>
+          <t>30-59317405-7</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>YPF SOCIEDAD ANONIMA</t>
+          <t>RIZOBACTER ARGENTINA S.A.</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E14" t="n">
         <v>2023</v>
       </c>
       <c r="F14" t="n">
-        <v>32294765</v>
+        <v>32500736</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>217200925512</v>
+        <v>1400032810</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Factura</t>
+          <t>Nota Crédito</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1248,20 +1248,20 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>4 - Sector mayorista de combustibles</t>
+          <t>1 - Regimen general mayorista</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>19115.33</v>
+        <v>-3060084</v>
       </c>
       <c r="M14" t="n">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="N14" t="n">
-        <v>286.73</v>
+        <v>-7650.21</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>45107</v>
+        <v>45121</v>
       </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
@@ -1270,12 +1270,12 @@
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr">
         <is>
-          <t>30-51615064-1</t>
+          <t>30-59317405-7</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>VOLVO TRUCKS   BUSES ARGENTINA S.A.</t>
+          <t>RIZOBACTER ARGENTINA S.A.</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -1285,17 +1285,17 @@
         <v>2023</v>
       </c>
       <c r="F15" t="n">
-        <v>32474619</v>
+        <v>32500736</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>20000010718</v>
+        <v>1400032809</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Factura</t>
+          <t>Nota Crédito</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1305,20 +1305,20 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2 - Regimen faena y comercializacion de ganado bovino</t>
+          <t>1 - Regimen general mayorista</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3874532</v>
+        <v>-31136</v>
       </c>
       <c r="M15" t="n">
         <v>0.25</v>
       </c>
       <c r="N15" t="n">
-        <v>9686.33</v>
+        <v>-77.84</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>45118</v>
+        <v>45121</v>
       </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
@@ -1327,12 +1327,12 @@
       <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
-          <t>30-51615064-1</t>
+          <t>30-59317405-7</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>VOLVO TRUCKS   BUSES ARGENTINA S.A.</t>
+          <t>RIZOBACTER ARGENTINA S.A.</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -1342,17 +1342,17 @@
         <v>2023</v>
       </c>
       <c r="F16" t="n">
-        <v>32474619</v>
+        <v>32500736</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>20000010717</v>
+        <v>1400032808</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Factura</t>
+          <t>Nota Crédito</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1362,20 +1362,20 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2 - Regimen faena y comercializacion de ganado bovino</t>
+          <t>1 - Regimen general mayorista</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1096208</v>
+        <v>-3039652</v>
       </c>
       <c r="M16" t="n">
         <v>0.25</v>
       </c>
       <c r="N16" t="n">
-        <v>2740.52</v>
+        <v>-7599.13</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>45118</v>
+        <v>45121</v>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
@@ -1405,7 +1405,7 @@
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1400032811</v>
+        <v>1400032807</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>-3039652</v>
+        <v>-3064952</v>
       </c>
       <c r="M17" t="n">
         <v>0.25</v>
       </c>
       <c r="N17" t="n">
-        <v>7599.13</v>
+        <v>-7662.38</v>
       </c>
       <c r="O17" s="2" t="n">
         <v>45121</v>
@@ -1462,7 +1462,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>1400032810</v>
+        <v>1400032802</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1480,13 +1480,13 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>-3060084</v>
+        <v>-31136</v>
       </c>
       <c r="M18" t="n">
         <v>0.25</v>
       </c>
       <c r="N18" t="n">
-        <v>7650.21</v>
+        <v>-77.84</v>
       </c>
       <c r="O18" s="2" t="n">
         <v>45121</v>
@@ -1519,11 +1519,11 @@
         <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>1400032809</v>
+        <v>1400075217</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Nota Crédito</t>
+          <t>Factura</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1537,13 +1537,13 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>-31136</v>
+        <v>3042780</v>
       </c>
       <c r="M19" t="n">
         <v>0.25</v>
       </c>
       <c r="N19" t="n">
-        <v>77.84</v>
+        <v>7606.95</v>
       </c>
       <c r="O19" s="2" t="n">
         <v>45121</v>
@@ -1555,12 +1555,12 @@
       <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr">
         <is>
-          <t>30-59317405-7</t>
+          <t>30-54668997-9</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>RIZOBACTER ARGENTINA S.A.</t>
+          <t>YPF SOCIEDAD ANONIMA</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -1570,17 +1570,17 @@
         <v>2023</v>
       </c>
       <c r="F20" t="n">
-        <v>32500736</v>
+        <v>32480186</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>1400032808</v>
+        <v>217200944667</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Nota Crédito</t>
+          <t>Factura</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1590,20 +1590,20 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>1 - Regimen general mayorista</t>
+          <t>4 - Sector mayorista de combustibles</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>-3039652</v>
+        <v>63499.33</v>
       </c>
       <c r="M20" t="n">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="N20" t="n">
-        <v>7599.13</v>
+        <v>321</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>45121</v>
+        <v>45122</v>
       </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
@@ -1612,32 +1612,32 @@
       <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr">
         <is>
-          <t>30-59317405-7</t>
+          <t>30-51615064-1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>RIZOBACTER ARGENTINA S.A.</t>
+          <t>VOLVO TRUCKS   BUSES ARGENTINA S.A.</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E21" t="n">
         <v>2023</v>
       </c>
       <c r="F21" t="n">
-        <v>32500736</v>
+        <v>32638061</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>1400032807</v>
+        <v>20000011047</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Nota Crédito</t>
+          <t>Factura</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1647,20 +1647,20 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>1 - Regimen general mayorista</t>
+          <t>2 - Regimen faena y comercializacion de ganado bovino</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>-3064952</v>
+        <v>4935560</v>
       </c>
       <c r="M21" t="n">
         <v>0.25</v>
       </c>
       <c r="N21" t="n">
-        <v>7662.38</v>
+        <v>12338.9</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>45121</v>
+        <v>45145</v>
       </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
@@ -1669,32 +1669,32 @@
       <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
-          <t>30-59317405-7</t>
+          <t>30-54668997-9</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>RIZOBACTER ARGENTINA S.A.</t>
+          <t>YPF SOCIEDAD ANONIMA</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E22" t="n">
         <v>2023</v>
       </c>
       <c r="F22" t="n">
-        <v>32500736</v>
+        <v>32683810</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>1400032802</v>
+        <v>917200988622</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Nota Crédito</t>
+          <t>Factura</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1704,20 +1704,20 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>1 - Regimen general mayorista</t>
+          <t>4 - Sector mayorista de combustibles</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>-31136</v>
+        <v>1861960.67</v>
       </c>
       <c r="M22" t="n">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="N22" t="n">
-        <v>77.84</v>
+        <v>27929.41</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>45121</v>
+        <v>45169</v>
       </c>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
@@ -1726,28 +1726,28 @@
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
-          <t>30-59317405-7</t>
+          <t>30-54668997-9</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>RIZOBACTER ARGENTINA S.A.</t>
+          <t>YPF SOCIEDAD ANONIMA</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E23" t="n">
         <v>2023</v>
       </c>
       <c r="F23" t="n">
-        <v>32500736</v>
+        <v>32683810</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>1400075219</v>
+        <v>217200988622</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1761,20 +1761,20 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>1 - Regimen general mayorista</t>
+          <t>4 - Sector mayorista de combustibles</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>238904</v>
+        <v>2132</v>
       </c>
       <c r="M23" t="n">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="N23" t="n">
-        <v>597.26</v>
+        <v>31.98</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>45121</v>
+        <v>45169</v>
       </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
@@ -1783,28 +1783,28 @@
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t>30-59317405-7</t>
+          <t>30-51615064-1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>RIZOBACTER ARGENTINA S.A.</t>
+          <t>VOLVO TRUCKS   BUSES ARGENTINA S.A.</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E24" t="n">
         <v>2023</v>
       </c>
       <c r="F24" t="n">
-        <v>32500736</v>
+        <v>32806564</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>1400075218</v>
+        <v>20000011364</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1818,1163 +1818,23 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>1 - Regimen general mayorista</t>
+          <t>2 - Regimen faena y comercializacion de ganado bovino</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>767512</v>
+        <v>6644856</v>
       </c>
       <c r="M24" t="n">
         <v>0.25</v>
       </c>
       <c r="N24" t="n">
-        <v>1918.78</v>
+        <v>16612.14</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>45121</v>
+        <v>45180</v>
       </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>30-59317405-7</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>RIZOBACTER ARGENTINA S.A.</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>7</v>
-      </c>
-      <c r="E25" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F25" t="n">
-        <v>32500736</v>
-      </c>
-      <c r="G25" t="n">
-        <v>1</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1400075217</v>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>Factura</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>1 - Regimen general mayorista</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>3042780</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="N25" t="n">
-        <v>7606.95</v>
-      </c>
-      <c r="O25" s="2" t="n">
-        <v>45121</v>
-      </c>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>30-59317405-7</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>RIZOBACTER ARGENTINA S.A.</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>7</v>
-      </c>
-      <c r="E26" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F26" t="n">
-        <v>32500736</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1400075216</v>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>Factura</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>1 - Regimen general mayorista</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>2326888</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="N26" t="n">
-        <v>5817.22</v>
-      </c>
-      <c r="O26" s="2" t="n">
-        <v>45121</v>
-      </c>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>30-59317405-7</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>RIZOBACTER ARGENTINA S.A.</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>7</v>
-      </c>
-      <c r="E27" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F27" t="n">
-        <v>32500736</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1400075215</v>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>Factura</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>1 - Regimen general mayorista</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>2863560</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="N27" t="n">
-        <v>7158.9</v>
-      </c>
-      <c r="O27" s="2" t="n">
-        <v>45121</v>
-      </c>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>30-59317405-7</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>RIZOBACTER ARGENTINA S.A.</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>7</v>
-      </c>
-      <c r="E28" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F28" t="n">
-        <v>32500736</v>
-      </c>
-      <c r="G28" t="n">
-        <v>1</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1400075214</v>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>Factura</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>1 - Regimen general mayorista</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>3042776</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="N28" t="n">
-        <v>7606.94</v>
-      </c>
-      <c r="O28" s="2" t="n">
-        <v>45121</v>
-      </c>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>30-54668997-9</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>YPF SOCIEDAD ANONIMA</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>7</v>
-      </c>
-      <c r="E29" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F29" t="n">
-        <v>32480186</v>
-      </c>
-      <c r="G29" t="n">
-        <v>1</v>
-      </c>
-      <c r="H29" t="n">
-        <v>217200956758</v>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>Factura</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>4 - Sector mayorista de combustibles</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>49180</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="N29" t="n">
-        <v>737.7</v>
-      </c>
-      <c r="O29" s="2" t="n">
-        <v>45138</v>
-      </c>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>30-51615064-1</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>VOLVO TRUCKS   BUSES ARGENTINA S.A.</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>8</v>
-      </c>
-      <c r="E30" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F30" t="n">
-        <v>32638061</v>
-      </c>
-      <c r="G30" t="n">
-        <v>1</v>
-      </c>
-      <c r="H30" t="n">
-        <v>20000011047</v>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>Factura</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>2 - Regimen faena y comercializacion de ganado bovino</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>4935560</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="N30" t="n">
-        <v>12338.9</v>
-      </c>
-      <c r="O30" s="2" t="n">
-        <v>45145</v>
-      </c>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>30-54668997-9</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>YPF SOCIEDAD ANONIMA</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>8</v>
-      </c>
-      <c r="E31" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F31" t="n">
-        <v>32683810</v>
-      </c>
-      <c r="G31" t="n">
-        <v>1</v>
-      </c>
-      <c r="H31" t="n">
-        <v>217200975450</v>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>Factura</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>4 - Sector mayorista de combustibles</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>26223.33</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="N31" t="n">
-        <v>393.35</v>
-      </c>
-      <c r="O31" s="2" t="n">
-        <v>45153</v>
-      </c>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>30-59851109-4</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>MAMPRIN Y SCEVOLA S.R.L.</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>8</v>
-      </c>
-      <c r="E32" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F32" t="n">
-        <v>32640246</v>
-      </c>
-      <c r="G32" t="n">
-        <v>1</v>
-      </c>
-      <c r="H32" t="n">
-        <v>35725</v>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>Factura</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>4 - Sector mayorista de combustibles</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>6008</v>
-      </c>
-      <c r="M32" t="n">
-        <v>3</v>
-      </c>
-      <c r="N32" t="n">
-        <v>180.24</v>
-      </c>
-      <c r="O32" s="2" t="n">
-        <v>45167</v>
-      </c>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>30-54668997-9</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>YPF SOCIEDAD ANONIMA</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>8</v>
-      </c>
-      <c r="E33" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F33" t="n">
-        <v>32683810</v>
-      </c>
-      <c r="G33" t="n">
-        <v>1</v>
-      </c>
-      <c r="H33" t="n">
-        <v>917200988622</v>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>Factura</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>4 - Sector mayorista de combustibles</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1861960.67</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="N33" t="n">
-        <v>27929.41</v>
-      </c>
-      <c r="O33" s="2" t="n">
-        <v>45169</v>
-      </c>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr"/>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>30-54668997-9</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>YPF SOCIEDAD ANONIMA</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>8</v>
-      </c>
-      <c r="E34" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F34" t="n">
-        <v>32683810</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1</v>
-      </c>
-      <c r="H34" t="n">
-        <v>217200988622</v>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>Factura</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>4 - Sector mayorista de combustibles</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>2132</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="N34" t="n">
-        <v>31.98</v>
-      </c>
-      <c r="O34" s="2" t="n">
-        <v>45169</v>
-      </c>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>33-50404708-9</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>LA AGRICOLA REGIONAL COOPERATIVA LIMITADA</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>8</v>
-      </c>
-      <c r="E35" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F35" t="n">
-        <v>32693379</v>
-      </c>
-      <c r="G35" t="n">
-        <v>1</v>
-      </c>
-      <c r="H35" t="n">
-        <v>40000002592</v>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>Factura</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>1 - Regimen general mayorista</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>537.33</v>
-      </c>
-      <c r="M35" t="n">
-        <v>3</v>
-      </c>
-      <c r="N35" t="n">
-        <v>16.12</v>
-      </c>
-      <c r="O35" s="2" t="n">
-        <v>45169</v>
-      </c>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr"/>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>30-51615064-1</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>VOLVO TRUCKS   BUSES ARGENTINA S.A.</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>9</v>
-      </c>
-      <c r="E36" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F36" t="n">
-        <v>32806564</v>
-      </c>
-      <c r="G36" t="n">
-        <v>1</v>
-      </c>
-      <c r="H36" t="n">
-        <v>20000011364</v>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>Factura</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>2 - Regimen faena y comercializacion de ganado bovino</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>6644856</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="N36" t="n">
-        <v>16612.14</v>
-      </c>
-      <c r="O36" s="2" t="n">
-        <v>45180</v>
-      </c>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr"/>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>30-54668997-9</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>YPF SOCIEDAD ANONIMA</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>9</v>
-      </c>
-      <c r="E37" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F37" t="n">
-        <v>32861928</v>
-      </c>
-      <c r="G37" t="n">
-        <v>1</v>
-      </c>
-      <c r="H37" t="n">
-        <v>217201007912</v>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>Factura</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>4 - Sector mayorista de combustibles</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>96530.67</v>
-      </c>
-      <c r="M37" t="n">
-        <v>6</v>
-      </c>
-      <c r="N37" t="n">
-        <v>5791.84</v>
-      </c>
-      <c r="O37" s="2" t="n">
-        <v>45184</v>
-      </c>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr"/>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>30-54668997-9</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>YPF SOCIEDAD ANONIMA</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>9</v>
-      </c>
-      <c r="E38" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F38" t="n">
-        <v>32861928</v>
-      </c>
-      <c r="G38" t="n">
-        <v>1</v>
-      </c>
-      <c r="H38" t="n">
-        <v>217201019982</v>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>Factura</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>4 - Sector mayorista de combustibles</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>91889.67</v>
-      </c>
-      <c r="M38" t="n">
-        <v>6</v>
-      </c>
-      <c r="N38" t="n">
-        <v>5513.38</v>
-      </c>
-      <c r="O38" s="2" t="n">
-        <v>45199</v>
-      </c>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr"/>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>30-59851109-4</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>MAMPRIN Y SCEVOLA S.R.L.</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>10</v>
-      </c>
-      <c r="E39" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F39" t="n">
-        <v>32975365</v>
-      </c>
-      <c r="G39" t="n">
-        <v>1</v>
-      </c>
-      <c r="H39" t="n">
-        <v>36326</v>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>Factura</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>4 - Sector mayorista de combustibles</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>98666.37</v>
-      </c>
-      <c r="M39" t="n">
-        <v>3</v>
-      </c>
-      <c r="N39" t="n">
-        <v>2959.99</v>
-      </c>
-      <c r="O39" s="2" t="n">
-        <v>45202</v>
-      </c>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr"/>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>30-59851109-4</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>MAMPRIN Y SCEVOLA S.R.L.</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>10</v>
-      </c>
-      <c r="E40" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F40" t="n">
-        <v>32975365</v>
-      </c>
-      <c r="G40" t="n">
-        <v>1</v>
-      </c>
-      <c r="H40" t="n">
-        <v>36462</v>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>Factura</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>4 - Sector mayorista de combustibles</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>707400.7</v>
-      </c>
-      <c r="M40" t="n">
-        <v>3</v>
-      </c>
-      <c r="N40" t="n">
-        <v>21222.02</v>
-      </c>
-      <c r="O40" s="2" t="n">
-        <v>45209</v>
-      </c>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr"/>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>30-54668997-9</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>YPF SOCIEDAD ANONIMA</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>10</v>
-      </c>
-      <c r="E41" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F41" t="n">
-        <v>33031820</v>
-      </c>
-      <c r="G41" t="n">
-        <v>1</v>
-      </c>
-      <c r="H41" t="n">
-        <v>217201040113</v>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>Factura</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>4 - Sector mayorista de combustibles</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>256643.33</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="N41" t="n">
-        <v>3849.65</v>
-      </c>
-      <c r="O41" s="2" t="n">
-        <v>45214</v>
-      </c>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr"/>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>30-54668997-9</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>YPF SOCIEDAD ANONIMA</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>10</v>
-      </c>
-      <c r="E42" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F42" t="n">
-        <v>33031820</v>
-      </c>
-      <c r="G42" t="n">
-        <v>1</v>
-      </c>
-      <c r="H42" t="n">
-        <v>217201052822</v>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>Factura</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>4 - Sector mayorista de combustibles</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>428760.67</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="N42" t="n">
-        <v>6431.41</v>
-      </c>
-      <c r="O42" s="2" t="n">
-        <v>45230</v>
-      </c>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr"/>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>30-54668997-9</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>YPF SOCIEDAD ANONIMA</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>11</v>
-      </c>
-      <c r="E43" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F43" t="n">
-        <v>33244418</v>
-      </c>
-      <c r="G43" t="n">
-        <v>1</v>
-      </c>
-      <c r="H43" t="n">
-        <v>217201072303</v>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>Factura</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>4 - Sector mayorista de combustibles</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>3883881.33</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="N43" t="n">
-        <v>58258.22</v>
-      </c>
-      <c r="O43" s="2" t="n">
-        <v>45245</v>
-      </c>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr"/>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>30-54668997-9</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>YPF SOCIEDAD ANONIMA</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>11</v>
-      </c>
-      <c r="E44" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F44" t="n">
-        <v>33244418</v>
-      </c>
-      <c r="G44" t="n">
-        <v>1</v>
-      </c>
-      <c r="H44" t="n">
-        <v>217201085298</v>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>Factura</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>4 - Sector mayorista de combustibles</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>372000</v>
-      </c>
-      <c r="M44" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="N44" t="n">
-        <v>5580</v>
-      </c>
-      <c r="O44" s="2" t="n">
-        <v>45260</v>
-      </c>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2987,7 +1847,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3086,28 +1946,28 @@
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>30-54668997-9</t>
+          <t>30-51615064-1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>YPF SOCIEDAD ANONIMA</t>
+          <t>VOLVO TRUCKS   BUSES ARGENTINA S.A.</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" t="n">
         <v>2023</v>
       </c>
       <c r="F2" t="n">
-        <v>32480186</v>
+        <v>32292576</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>217200944667</v>
+        <v>20000010392</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -3121,23 +1981,1163 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>4 - Sector mayorista de combustibles</t>
+          <t>2 - Regimen faena y comercializacion de ganado bovino</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>63499.33</v>
+        <v>3910608</v>
       </c>
       <c r="M2" t="n">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="N2" t="n">
-        <v>321</v>
+        <v>9776.52</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>45122</v>
+        <v>45090</v>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>30-54668997-9</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>YPF SOCIEDAD ANONIMA</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F3" t="n">
+        <v>32294765</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>217200913399</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>4 - Sector mayorista de combustibles</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>75818.67</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1137.28</v>
+      </c>
+      <c r="O3" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>30-51615064-1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>VOLVO TRUCKS   BUSES ARGENTINA S.A.</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F4" t="n">
+        <v>32292576</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>20000010603</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2 - Regimen faena y comercializacion de ganado bovino</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>250820</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N4" t="n">
+        <v>627.05</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>30-54668997-9</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>YPF SOCIEDAD ANONIMA</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>6</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F5" t="n">
+        <v>32294765</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>217200925512</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>4 - Sector mayorista de combustibles</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>19115.33</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N5" t="n">
+        <v>286.73</v>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>30-59317405-7</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>RIZOBACTER ARGENTINA S.A.</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>7</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F6" t="n">
+        <v>32500736</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1400075219</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>1 - Regimen general mayorista</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>238904</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N6" t="n">
+        <v>597.26</v>
+      </c>
+      <c r="O6" s="2" t="n">
+        <v>45121</v>
+      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>30-59317405-7</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>RIZOBACTER ARGENTINA S.A.</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>7</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F7" t="n">
+        <v>32500736</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1400075218</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>1 - Regimen general mayorista</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>767512</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1918.78</v>
+      </c>
+      <c r="O7" s="2" t="n">
+        <v>45121</v>
+      </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>30-59317405-7</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>RIZOBACTER ARGENTINA S.A.</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F8" t="n">
+        <v>32500736</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1400075216</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>1 - Regimen general mayorista</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>2326888</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N8" t="n">
+        <v>5817.22</v>
+      </c>
+      <c r="O8" s="2" t="n">
+        <v>45121</v>
+      </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>30-59317405-7</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>RIZOBACTER ARGENTINA S.A.</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F9" t="n">
+        <v>32500736</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1400075215</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>1 - Regimen general mayorista</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>2863560</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N9" t="n">
+        <v>7158.9</v>
+      </c>
+      <c r="O9" s="2" t="n">
+        <v>45121</v>
+      </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>30-59317405-7</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>RIZOBACTER ARGENTINA S.A.</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>7</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F10" t="n">
+        <v>32500736</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1400075214</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>1 - Regimen general mayorista</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>3042776</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7606.94</v>
+      </c>
+      <c r="O10" s="2" t="n">
+        <v>45121</v>
+      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>30-54668997-9</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>YPF SOCIEDAD ANONIMA</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>7</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F11" t="n">
+        <v>32480186</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>217200956758</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>4 - Sector mayorista de combustibles</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>49180</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N11" t="n">
+        <v>737.7</v>
+      </c>
+      <c r="O11" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>30-54668997-9</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>YPF SOCIEDAD ANONIMA</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>8</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F12" t="n">
+        <v>32683810</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>217200975450</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>4 - Sector mayorista de combustibles</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>26223.33</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N12" t="n">
+        <v>393.35</v>
+      </c>
+      <c r="O12" s="2" t="n">
+        <v>45153</v>
+      </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>30-59851109-4</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>MAMPRIN Y SCEVOLA S.R.L.</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>8</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F13" t="n">
+        <v>32640246</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>35725</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>4 - Sector mayorista de combustibles</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>6008</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="n">
+        <v>180.24</v>
+      </c>
+      <c r="O13" s="2" t="n">
+        <v>45167</v>
+      </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>33-50404708-9</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>LA AGRICOLA REGIONAL COOPERATIVA LIMITADA</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>8</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F14" t="n">
+        <v>32693379</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>40000002592</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>1 - Regimen general mayorista</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>537.33</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="n">
+        <v>16.12</v>
+      </c>
+      <c r="O14" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>30-54668997-9</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>YPF SOCIEDAD ANONIMA</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>9</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F15" t="n">
+        <v>32861928</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>217201007912</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>4 - Sector mayorista de combustibles</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>96530.67</v>
+      </c>
+      <c r="M15" t="n">
+        <v>6</v>
+      </c>
+      <c r="N15" t="n">
+        <v>5791.84</v>
+      </c>
+      <c r="O15" s="2" t="n">
+        <v>45184</v>
+      </c>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>30-54668997-9</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>YPF SOCIEDAD ANONIMA</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>9</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F16" t="n">
+        <v>32861928</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>217201019982</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>4 - Sector mayorista de combustibles</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>91889.67</v>
+      </c>
+      <c r="M16" t="n">
+        <v>6</v>
+      </c>
+      <c r="N16" t="n">
+        <v>5513.38</v>
+      </c>
+      <c r="O16" s="2" t="n">
+        <v>45199</v>
+      </c>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>30-59851109-4</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>MAMPRIN Y SCEVOLA S.R.L.</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>10</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F17" t="n">
+        <v>32975365</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>36326</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>4 - Sector mayorista de combustibles</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>98666.37</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2959.99</v>
+      </c>
+      <c r="O17" s="2" t="n">
+        <v>45202</v>
+      </c>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>30-59851109-4</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>MAMPRIN Y SCEVOLA S.R.L.</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F18" t="n">
+        <v>32975365</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>36462</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>4 - Sector mayorista de combustibles</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>707400.7</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="n">
+        <v>21222.02</v>
+      </c>
+      <c r="O18" s="2" t="n">
+        <v>45209</v>
+      </c>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>30-54668997-9</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>YPF SOCIEDAD ANONIMA</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>10</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F19" t="n">
+        <v>33031820</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>217201040113</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>4 - Sector mayorista de combustibles</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>256643.33</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3849.65</v>
+      </c>
+      <c r="O19" s="2" t="n">
+        <v>45214</v>
+      </c>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>30-54668997-9</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>YPF SOCIEDAD ANONIMA</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>10</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F20" t="n">
+        <v>33031820</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>217201052822</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>4 - Sector mayorista de combustibles</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>428760.67</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>6431.41</v>
+      </c>
+      <c r="O20" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>30-54668997-9</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>YPF SOCIEDAD ANONIMA</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>11</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F21" t="n">
+        <v>33244418</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>217201072303</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>4 - Sector mayorista de combustibles</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>3883881.33</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N21" t="n">
+        <v>58258.22</v>
+      </c>
+      <c r="O21" s="2" t="n">
+        <v>45245</v>
+      </c>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>30-54668997-9</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>YPF SOCIEDAD ANONIMA</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>11</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F22" t="n">
+        <v>33244418</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>217201085298</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>4 - Sector mayorista de combustibles</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>372000</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N22" t="n">
+        <v>5580</v>
+      </c>
+      <c r="O22" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/resultados_percepciones.xlsx
+++ b/resultados_percepciones.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,12 +586,12 @@
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>30-59317405-7</t>
+          <t>30-51615064-1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>RIZOBACTER ARGENTINA S.A.</t>
+          <t>VOLVO TRUCKS   BUSES ARGENTINA S.A.</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -601,17 +601,17 @@
         <v>2023</v>
       </c>
       <c r="F3" t="n">
-        <v>32321704</v>
+        <v>32292576</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1400032712</v>
+        <v>20000010392</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Nota Crédito</t>
+          <t>Factura</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -621,20 +621,20 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1 - Regimen general mayorista</t>
+          <t>2 - Regimen faena y comercializacion de ganado bovino</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>-12821720</v>
+        <v>3910608</v>
       </c>
       <c r="M3" t="n">
         <v>0.25</v>
       </c>
       <c r="N3" t="n">
-        <v>-32054.3</v>
+        <v>9776.52</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>45106</v>
+        <v>45090</v>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
@@ -664,11 +664,11 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1400074877</v>
+        <v>1400032712</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Factura</t>
+          <t>Nota Crédito</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>12821720</v>
+        <v>-12821720</v>
       </c>
       <c r="M4" t="n">
         <v>0.25</v>
       </c>
       <c r="N4" t="n">
-        <v>32054.3</v>
+        <v>-32054.3</v>
       </c>
       <c r="O4" s="2" t="n">
         <v>45106</v>
@@ -721,7 +721,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1400074858</v>
+        <v>1400074877</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -739,13 +739,13 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>31136</v>
+        <v>12821720</v>
       </c>
       <c r="M5" t="n">
         <v>0.25</v>
       </c>
       <c r="N5" t="n">
-        <v>77.84</v>
+        <v>32054.3</v>
       </c>
       <c r="O5" s="2" t="n">
         <v>45106</v>
@@ -778,7 +778,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1400074857</v>
+        <v>1400074858</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -796,13 +796,13 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>3039652</v>
+        <v>31136</v>
       </c>
       <c r="M6" t="n">
         <v>0.25</v>
       </c>
       <c r="N6" t="n">
-        <v>7599.13</v>
+        <v>77.84</v>
       </c>
       <c r="O6" s="2" t="n">
         <v>45106</v>
@@ -835,7 +835,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1400074856</v>
+        <v>1400074857</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -853,13 +853,13 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>3060084</v>
+        <v>3039652</v>
       </c>
       <c r="M7" t="n">
         <v>0.25</v>
       </c>
       <c r="N7" t="n">
-        <v>7650.21</v>
+        <v>7599.13</v>
       </c>
       <c r="O7" s="2" t="n">
         <v>45106</v>
@@ -892,7 +892,7 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1400074855</v>
+        <v>1400074856</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>31136</v>
+        <v>3060084</v>
       </c>
       <c r="M8" t="n">
         <v>0.25</v>
       </c>
       <c r="N8" t="n">
-        <v>77.84</v>
+        <v>7650.21</v>
       </c>
       <c r="O8" s="2" t="n">
         <v>45106</v>
@@ -949,7 +949,7 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1400074854</v>
+        <v>1400074855</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>3039652</v>
+        <v>31136</v>
       </c>
       <c r="M9" t="n">
         <v>0.25</v>
       </c>
       <c r="N9" t="n">
-        <v>7599.13</v>
+        <v>77.84</v>
       </c>
       <c r="O9" s="2" t="n">
         <v>45106</v>
@@ -1006,7 +1006,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1400074853</v>
+        <v>1400074854</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -1024,13 +1024,13 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>3064952</v>
+        <v>3039652</v>
       </c>
       <c r="M10" t="n">
         <v>0.25</v>
       </c>
       <c r="N10" t="n">
-        <v>-111721.68</v>
+        <v>7599.13</v>
       </c>
       <c r="O10" s="2" t="n">
         <v>45106</v>
@@ -1042,28 +1042,28 @@
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>30-51615064-1</t>
+          <t>30-59317405-7</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>VOLVO TRUCKS   BUSES ARGENTINA S.A.</t>
+          <t>RIZOBACTER ARGENTINA S.A.</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11" t="n">
         <v>2023</v>
       </c>
       <c r="F11" t="n">
-        <v>32474619</v>
+        <v>32321704</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>20000010718</v>
+        <v>1400074853</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1077,20 +1077,20 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2 - Regimen faena y comercializacion de ganado bovino</t>
+          <t>1 - Regimen general mayorista</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>3874532</v>
+        <v>3064952</v>
       </c>
       <c r="M11" t="n">
         <v>0.25</v>
       </c>
       <c r="N11" t="n">
-        <v>9686.33</v>
+        <v>-111721.68</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>45118</v>
+        <v>45106</v>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
@@ -1120,7 +1120,7 @@
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>20000010717</v>
+        <v>20000010718</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1138,13 +1138,13 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>1096208</v>
+        <v>3874532</v>
       </c>
       <c r="M12" t="n">
         <v>0.25</v>
       </c>
       <c r="N12" t="n">
-        <v>2740.52</v>
+        <v>9686.33</v>
       </c>
       <c r="O12" s="2" t="n">
         <v>45118</v>
@@ -1156,12 +1156,12 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
-          <t>30-59317405-7</t>
+          <t>30-51615064-1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>RIZOBACTER ARGENTINA S.A.</t>
+          <t>VOLVO TRUCKS   BUSES ARGENTINA S.A.</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -1171,17 +1171,17 @@
         <v>2023</v>
       </c>
       <c r="F13" t="n">
-        <v>32500736</v>
+        <v>32474619</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1400032811</v>
+        <v>20000010717</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Nota Crédito</t>
+          <t>Factura</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1191,20 +1191,20 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>1 - Regimen general mayorista</t>
+          <t>2 - Regimen faena y comercializacion de ganado bovino</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>-3039652</v>
+        <v>1096208</v>
       </c>
       <c r="M13" t="n">
         <v>0.25</v>
       </c>
       <c r="N13" t="n">
-        <v>-7599.13</v>
+        <v>2740.52</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>45121</v>
+        <v>45118</v>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
@@ -1234,7 +1234,7 @@
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1400032810</v>
+        <v>1400032811</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1252,13 +1252,13 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>-3060084</v>
+        <v>-3039652</v>
       </c>
       <c r="M14" t="n">
         <v>0.25</v>
       </c>
       <c r="N14" t="n">
-        <v>-7650.21</v>
+        <v>-7599.13</v>
       </c>
       <c r="O14" s="2" t="n">
         <v>45121</v>
@@ -1291,7 +1291,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>1400032809</v>
+        <v>1400032810</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1309,13 +1309,13 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>-31136</v>
+        <v>-3060084</v>
       </c>
       <c r="M15" t="n">
         <v>0.25</v>
       </c>
       <c r="N15" t="n">
-        <v>-77.84</v>
+        <v>-7650.21</v>
       </c>
       <c r="O15" s="2" t="n">
         <v>45121</v>
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>1400032808</v>
+        <v>1400032809</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>-3039652</v>
+        <v>-31136</v>
       </c>
       <c r="M16" t="n">
         <v>0.25</v>
       </c>
       <c r="N16" t="n">
-        <v>-7599.13</v>
+        <v>-77.84</v>
       </c>
       <c r="O16" s="2" t="n">
         <v>45121</v>
@@ -1405,7 +1405,7 @@
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1400032807</v>
+        <v>1400032808</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>-3064952</v>
+        <v>-3039652</v>
       </c>
       <c r="M17" t="n">
         <v>0.25</v>
       </c>
       <c r="N17" t="n">
-        <v>-7662.38</v>
+        <v>-7599.13</v>
       </c>
       <c r="O17" s="2" t="n">
         <v>45121</v>
@@ -1462,7 +1462,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>1400032802</v>
+        <v>1400032807</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1480,13 +1480,13 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>-31136</v>
+        <v>-3064952</v>
       </c>
       <c r="M18" t="n">
         <v>0.25</v>
       </c>
       <c r="N18" t="n">
-        <v>-77.84</v>
+        <v>-7662.38</v>
       </c>
       <c r="O18" s="2" t="n">
         <v>45121</v>
@@ -1519,11 +1519,11 @@
         <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>1400075217</v>
+        <v>1400032802</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Factura</t>
+          <t>Nota Crédito</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1537,13 +1537,13 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>3042780</v>
+        <v>-31136</v>
       </c>
       <c r="M19" t="n">
         <v>0.25</v>
       </c>
       <c r="N19" t="n">
-        <v>7606.95</v>
+        <v>-77.84</v>
       </c>
       <c r="O19" s="2" t="n">
         <v>45121</v>
@@ -1555,12 +1555,12 @@
       <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr">
         <is>
-          <t>30-54668997-9</t>
+          <t>30-59317405-7</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>YPF SOCIEDAD ANONIMA</t>
+          <t>RIZOBACTER ARGENTINA S.A.</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -1570,13 +1570,13 @@
         <v>2023</v>
       </c>
       <c r="F20" t="n">
-        <v>32480186</v>
+        <v>32500736</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>217200944667</v>
+        <v>1400075217</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1590,20 +1590,20 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>4 - Sector mayorista de combustibles</t>
+          <t>1 - Regimen general mayorista</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>63499.33</v>
+        <v>3042780</v>
       </c>
       <c r="M20" t="n">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="N20" t="n">
-        <v>321</v>
+        <v>7606.95</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>45122</v>
+        <v>45121</v>
       </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
@@ -1612,28 +1612,28 @@
       <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr">
         <is>
-          <t>30-51615064-1</t>
+          <t>30-54668997-9</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>VOLVO TRUCKS   BUSES ARGENTINA S.A.</t>
+          <t>YPF SOCIEDAD ANONIMA</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E21" t="n">
         <v>2023</v>
       </c>
       <c r="F21" t="n">
-        <v>32638061</v>
+        <v>32480186</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>20000011047</v>
+        <v>217200944667</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1647,20 +1647,20 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2 - Regimen faena y comercializacion de ganado bovino</t>
+          <t>4 - Sector mayorista de combustibles</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>4935560</v>
+        <v>63499.33</v>
       </c>
       <c r="M21" t="n">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="N21" t="n">
-        <v>12338.9</v>
+        <v>321</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>45145</v>
+        <v>45122</v>
       </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
@@ -1669,12 +1669,12 @@
       <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
-          <t>30-54668997-9</t>
+          <t>30-51615064-1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>YPF SOCIEDAD ANONIMA</t>
+          <t>VOLVO TRUCKS   BUSES ARGENTINA S.A.</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -1684,13 +1684,13 @@
         <v>2023</v>
       </c>
       <c r="F22" t="n">
-        <v>32683810</v>
+        <v>32638061</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>917200988622</v>
+        <v>20000011047</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1704,20 +1704,20 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>4 - Sector mayorista de combustibles</t>
+          <t>2 - Regimen faena y comercializacion de ganado bovino</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1861960.67</v>
+        <v>4935560</v>
       </c>
       <c r="M22" t="n">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="N22" t="n">
-        <v>27929.41</v>
+        <v>12338.9</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>45169</v>
+        <v>45145</v>
       </c>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
@@ -1747,7 +1747,7 @@
         <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>217200988622</v>
+        <v>917200988622</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1765,13 +1765,13 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2132</v>
+        <v>1861960.67</v>
       </c>
       <c r="M23" t="n">
         <v>1.5</v>
       </c>
       <c r="N23" t="n">
-        <v>31.98</v>
+        <v>27929.41</v>
       </c>
       <c r="O23" s="2" t="n">
         <v>45169</v>
@@ -1783,28 +1783,28 @@
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t>30-51615064-1</t>
+          <t>30-54668997-9</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>VOLVO TRUCKS   BUSES ARGENTINA S.A.</t>
+          <t>YPF SOCIEDAD ANONIMA</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E24" t="n">
         <v>2023</v>
       </c>
       <c r="F24" t="n">
-        <v>32806564</v>
+        <v>32683810</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>20000011364</v>
+        <v>217200988622</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1818,23 +1818,137 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>2 - Regimen faena y comercializacion de ganado bovino</t>
+          <t>4 - Sector mayorista de combustibles</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>6644856</v>
+        <v>2132</v>
       </c>
       <c r="M24" t="n">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="N24" t="n">
-        <v>16612.14</v>
+        <v>31.98</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>45180</v>
+        <v>45169</v>
       </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>33-50404708-9</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>LA AGRICOLA REGIONAL COOPERATIVA LIMITADA</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>8</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F25" t="n">
+        <v>32693379</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>40000002592</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>1 - Regimen general mayorista</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>537.33</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="n">
+        <v>16.12</v>
+      </c>
+      <c r="O25" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>30-51615064-1</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>VOLVO TRUCKS   BUSES ARGENTINA S.A.</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>9</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F26" t="n">
+        <v>32806564</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>20000011364</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>2 - Regimen faena y comercializacion de ganado bovino</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>6644856</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N26" t="n">
+        <v>16612.14</v>
+      </c>
+      <c r="O26" s="2" t="n">
+        <v>45180</v>
+      </c>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1847,7 +1961,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1946,12 +2060,12 @@
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>30-51615064-1</t>
+          <t>30-54668997-9</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>VOLVO TRUCKS   BUSES ARGENTINA S.A.</t>
+          <t>YPF SOCIEDAD ANONIMA</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -1961,13 +2075,13 @@
         <v>2023</v>
       </c>
       <c r="F2" t="n">
-        <v>32292576</v>
+        <v>32294765</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>20000010392</v>
+        <v>217200913399</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -1981,20 +2095,20 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2 - Regimen faena y comercializacion de ganado bovino</t>
+          <t>4 - Sector mayorista de combustibles</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>3910608</v>
+        <v>75818.67</v>
       </c>
       <c r="M2" t="n">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="N2" t="n">
-        <v>9776.52</v>
+        <v>1137.28</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>45090</v>
+        <v>45092</v>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
@@ -2003,12 +2117,12 @@
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>30-54668997-9</t>
+          <t>30-51615064-1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>YPF SOCIEDAD ANONIMA</t>
+          <t>VOLVO TRUCKS   BUSES ARGENTINA S.A.</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -2018,13 +2132,13 @@
         <v>2023</v>
       </c>
       <c r="F3" t="n">
-        <v>32294765</v>
+        <v>32292576</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>217200913399</v>
+        <v>20000010603</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -2038,20 +2152,20 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>4 - Sector mayorista de combustibles</t>
+          <t>2 - Regimen faena y comercializacion de ganado bovino</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>75818.67</v>
+        <v>250820</v>
       </c>
       <c r="M3" t="n">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="N3" t="n">
-        <v>1137.28</v>
+        <v>627.05</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>45092</v>
+        <v>45107</v>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
@@ -2060,12 +2174,12 @@
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>30-51615064-1</t>
+          <t>30-54668997-9</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>VOLVO TRUCKS   BUSES ARGENTINA S.A.</t>
+          <t>YPF SOCIEDAD ANONIMA</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -2075,13 +2189,13 @@
         <v>2023</v>
       </c>
       <c r="F4" t="n">
-        <v>32292576</v>
+        <v>32294765</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>20000010603</v>
+        <v>217200925512</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -2095,17 +2209,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2 - Regimen faena y comercializacion de ganado bovino</t>
+          <t>4 - Sector mayorista de combustibles</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>250820</v>
+        <v>19115.33</v>
       </c>
       <c r="M4" t="n">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="N4" t="n">
-        <v>627.05</v>
+        <v>286.73</v>
       </c>
       <c r="O4" s="2" t="n">
         <v>45107</v>
@@ -2117,28 +2231,28 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>30-54668997-9</t>
+          <t>30-59317405-7</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>YPF SOCIEDAD ANONIMA</t>
+          <t>RIZOBACTER ARGENTINA S.A.</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5" t="n">
         <v>2023</v>
       </c>
       <c r="F5" t="n">
-        <v>32294765</v>
+        <v>32500736</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>217200925512</v>
+        <v>1400075219</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -2152,20 +2266,20 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>4 - Sector mayorista de combustibles</t>
+          <t>1 - Regimen general mayorista</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>19115.33</v>
+        <v>238904</v>
       </c>
       <c r="M5" t="n">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="N5" t="n">
-        <v>286.73</v>
+        <v>597.26</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>45107</v>
+        <v>45121</v>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
@@ -2195,7 +2309,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1400075219</v>
+        <v>1400075218</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -2213,13 +2327,13 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>238904</v>
+        <v>767512</v>
       </c>
       <c r="M6" t="n">
         <v>0.25</v>
       </c>
       <c r="N6" t="n">
-        <v>597.26</v>
+        <v>1918.78</v>
       </c>
       <c r="O6" s="2" t="n">
         <v>45121</v>
@@ -2252,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1400075218</v>
+        <v>1400075216</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -2270,13 +2384,13 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>767512</v>
+        <v>2326888</v>
       </c>
       <c r="M7" t="n">
         <v>0.25</v>
       </c>
       <c r="N7" t="n">
-        <v>1918.78</v>
+        <v>5817.22</v>
       </c>
       <c r="O7" s="2" t="n">
         <v>45121</v>
@@ -2309,7 +2423,7 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1400075216</v>
+        <v>1400075215</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -2327,13 +2441,13 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2326888</v>
+        <v>2863560</v>
       </c>
       <c r="M8" t="n">
         <v>0.25</v>
       </c>
       <c r="N8" t="n">
-        <v>5817.22</v>
+        <v>7158.9</v>
       </c>
       <c r="O8" s="2" t="n">
         <v>45121</v>
@@ -2366,7 +2480,7 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1400075215</v>
+        <v>1400075214</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -2384,13 +2498,13 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2863560</v>
+        <v>3042776</v>
       </c>
       <c r="M9" t="n">
         <v>0.25</v>
       </c>
       <c r="N9" t="n">
-        <v>7158.9</v>
+        <v>7606.94</v>
       </c>
       <c r="O9" s="2" t="n">
         <v>45121</v>
@@ -2402,12 +2516,12 @@
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
-          <t>30-59317405-7</t>
+          <t>30-54668997-9</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>RIZOBACTER ARGENTINA S.A.</t>
+          <t>YPF SOCIEDAD ANONIMA</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -2417,13 +2531,13 @@
         <v>2023</v>
       </c>
       <c r="F10" t="n">
-        <v>32500736</v>
+        <v>32480186</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1400075214</v>
+        <v>217200956758</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -2437,20 +2551,20 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>1 - Regimen general mayorista</t>
+          <t>4 - Sector mayorista de combustibles</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>3042776</v>
+        <v>49180</v>
       </c>
       <c r="M10" t="n">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="N10" t="n">
-        <v>7606.94</v>
+        <v>737.7</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>45121</v>
+        <v>45138</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
@@ -2468,19 +2582,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11" t="n">
         <v>2023</v>
       </c>
       <c r="F11" t="n">
-        <v>32480186</v>
+        <v>32683810</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>217200956758</v>
+        <v>217200975450</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -2498,16 +2612,16 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>49180</v>
+        <v>26223.33</v>
       </c>
       <c r="M11" t="n">
         <v>1.5</v>
       </c>
       <c r="N11" t="n">
-        <v>737.7</v>
+        <v>393.35</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>45138</v>
+        <v>45153</v>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
@@ -2516,12 +2630,12 @@
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>30-54668997-9</t>
+          <t>30-59851109-4</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>YPF SOCIEDAD ANONIMA</t>
+          <t>MAMPRIN Y SCEVOLA S.R.L.</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -2531,13 +2645,13 @@
         <v>2023</v>
       </c>
       <c r="F12" t="n">
-        <v>32683810</v>
+        <v>32640246</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>217200975450</v>
+        <v>35725</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -2555,16 +2669,16 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>26223.33</v>
+        <v>6008</v>
       </c>
       <c r="M12" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="N12" t="n">
-        <v>393.35</v>
+        <v>180.24</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>45153</v>
+        <v>45167</v>
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
@@ -2573,28 +2687,28 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
-          <t>30-59851109-4</t>
+          <t>30-54668997-9</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>MAMPRIN Y SCEVOLA S.R.L.</t>
+          <t>YPF SOCIEDAD ANONIMA</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13" t="n">
         <v>2023</v>
       </c>
       <c r="F13" t="n">
-        <v>32640246</v>
+        <v>32861928</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>35725</v>
+        <v>217201007912</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -2612,16 +2726,16 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>6008</v>
+        <v>96530.67</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N13" t="n">
-        <v>180.24</v>
+        <v>5791.84</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>45167</v>
+        <v>45184</v>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
@@ -2630,28 +2744,28 @@
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
-          <t>33-50404708-9</t>
+          <t>30-54668997-9</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>LA AGRICOLA REGIONAL COOPERATIVA LIMITADA</t>
+          <t>YPF SOCIEDAD ANONIMA</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E14" t="n">
         <v>2023</v>
       </c>
       <c r="F14" t="n">
-        <v>32693379</v>
+        <v>32861928</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>40000002592</v>
+        <v>217201019982</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -2665,20 +2779,20 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>1 - Regimen general mayorista</t>
+          <t>4 - Sector mayorista de combustibles</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>537.33</v>
+        <v>91889.67</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N14" t="n">
-        <v>16.12</v>
+        <v>5513.38</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>45169</v>
+        <v>45199</v>
       </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
@@ -2687,28 +2801,28 @@
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr">
         <is>
-          <t>30-54668997-9</t>
+          <t>30-59851109-4</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>YPF SOCIEDAD ANONIMA</t>
+          <t>MAMPRIN Y SCEVOLA S.R.L.</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="n">
         <v>2023</v>
       </c>
       <c r="F15" t="n">
-        <v>32861928</v>
+        <v>32975365</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>217201007912</v>
+        <v>36326</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -2726,16 +2840,16 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>96530.67</v>
+        <v>98666.37</v>
       </c>
       <c r="M15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N15" t="n">
-        <v>5791.84</v>
+        <v>2959.99</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>45184</v>
+        <v>45202</v>
       </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
@@ -2744,28 +2858,28 @@
       <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
-          <t>30-54668997-9</t>
+          <t>30-59851109-4</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>YPF SOCIEDAD ANONIMA</t>
+          <t>MAMPRIN Y SCEVOLA S.R.L.</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="n">
         <v>2023</v>
       </c>
       <c r="F16" t="n">
-        <v>32861928</v>
+        <v>32975365</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>217201019982</v>
+        <v>36462</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -2783,16 +2897,16 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>91889.67</v>
+        <v>707400.7</v>
       </c>
       <c r="M16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N16" t="n">
-        <v>5513.38</v>
+        <v>21222.02</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>45199</v>
+        <v>45209</v>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
@@ -2801,12 +2915,12 @@
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
-          <t>30-59851109-4</t>
+          <t>30-54668997-9</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>MAMPRIN Y SCEVOLA S.R.L.</t>
+          <t>YPF SOCIEDAD ANONIMA</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -2816,13 +2930,13 @@
         <v>2023</v>
       </c>
       <c r="F17" t="n">
-        <v>32975365</v>
+        <v>33031820</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>36326</v>
+        <v>217201040113</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -2840,16 +2954,16 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>98666.37</v>
+        <v>256643.33</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="N17" t="n">
-        <v>2959.99</v>
+        <v>3849.65</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>45202</v>
+        <v>45214</v>
       </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
@@ -2858,12 +2972,12 @@
       <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr">
         <is>
-          <t>30-59851109-4</t>
+          <t>30-54668997-9</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>MAMPRIN Y SCEVOLA S.R.L.</t>
+          <t>YPF SOCIEDAD ANONIMA</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -2873,13 +2987,13 @@
         <v>2023</v>
       </c>
       <c r="F18" t="n">
-        <v>32975365</v>
+        <v>33031820</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>36462</v>
+        <v>217201052822</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -2897,16 +3011,16 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>707400.7</v>
+        <v>428760.67</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="N18" t="n">
-        <v>21222.02</v>
+        <v>6431.41</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>45209</v>
+        <v>45230</v>
       </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
@@ -2924,19 +3038,19 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="n">
         <v>2023</v>
       </c>
       <c r="F19" t="n">
-        <v>33031820</v>
+        <v>33244418</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>217201040113</v>
+        <v>217201072303</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -2954,16 +3068,16 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>256643.33</v>
+        <v>3883881.33</v>
       </c>
       <c r="M19" t="n">
         <v>1.5</v>
       </c>
       <c r="N19" t="n">
-        <v>3849.65</v>
+        <v>58258.22</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>45214</v>
+        <v>45245</v>
       </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
@@ -2981,19 +3095,19 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="n">
         <v>2023</v>
       </c>
       <c r="F20" t="n">
-        <v>33031820</v>
+        <v>33244418</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>217201052822</v>
+        <v>217201085298</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -3011,133 +3125,19 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>428760.67</v>
+        <v>372000</v>
       </c>
       <c r="M20" t="n">
         <v>1.5</v>
       </c>
       <c r="N20" t="n">
-        <v>6431.41</v>
+        <v>5580</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>45230</v>
+        <v>45260</v>
       </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>30-54668997-9</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>YPF SOCIEDAD ANONIMA</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>11</v>
-      </c>
-      <c r="E21" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F21" t="n">
-        <v>33244418</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>217201072303</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Factura</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>4 - Sector mayorista de combustibles</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>3883881.33</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="N21" t="n">
-        <v>58258.22</v>
-      </c>
-      <c r="O21" s="2" t="n">
-        <v>45245</v>
-      </c>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>30-54668997-9</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>YPF SOCIEDAD ANONIMA</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>11</v>
-      </c>
-      <c r="E22" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F22" t="n">
-        <v>33244418</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" t="n">
-        <v>217201085298</v>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>Factura</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>4 - Sector mayorista de combustibles</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>372000</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="N22" t="n">
-        <v>5580</v>
-      </c>
-      <c r="O22" s="2" t="n">
-        <v>45260</v>
-      </c>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
